--- a/medicine/Enfance/Gwenaëlle_Doumont/Gwenaëlle_Doumont.xlsx
+++ b/medicine/Enfance/Gwenaëlle_Doumont/Gwenaëlle_Doumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gwena%C3%ABlle_Doumont</t>
+          <t>Gwenaëlle_Doumont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gwenaëlle Doumont, née le 22 janvier 1972 à Charleroi (province de Hainaut), est une illustratrice et autrice de bande dessinée belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gwena%C3%ABlle_Doumont</t>
+          <t>Gwenaëlle_Doumont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gwenaëlle Doumont naît le 22 janvier 1972 à Charleroi[1].
-En 1991, elle entre parfaire sa formation en arts graphiques à l'Institut Saint-Luc de Bruxelles d'où elle sort diplômée d'un graduat[1] en 1994[2]. Elle se consacre à plein temps à l’illustration depuis 2003, après la naissance de sa fille[3]. Ses dessins regorgeant de détails amusants sont joyeux et pleins d’un humour détonnant[2]. Elle a déjà illustré plusieurs albums jeunesse dont Poussin vert (2014) chez Palissade éditions et J’aime pas la danse (2015) aux éditions Talents Hauts[2]. 
-En 2015, pour le quarantième anniversaire de la Charte des auteurs et illustrateurs jeunesse, elle illustre un Abécédaire des auteurs et illustrateurs jeunesse rédigé par un collectif dirigé par Alice Brière-Haquet[4].
-En 2018, elle est récipiendaire du prix des Incorruptibles CE2/CM1 qu'elle partage avec Sandrine Beau pour Le Garçon qui parlait avec les mains publié aux éditions Alice Jeunesse en 2015[5].
-En 2021, elle s'associe à la scénariste Zélia Abadie pour lancer la série de bande dessinée jeunesse Awa et publie le premier tome intitulé : Faut qu'on change le monde ! publié aux éditions Talents Hauts. Dans la foulée, elle publie le second tome Les Nuances de l'amour l'année suivante chez le même éditeur[6].
-En 2023, elle a illustré plus de 78 ouvrages[7].
-Elle vit à Charleroi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gwenaëlle Doumont naît le 22 janvier 1972 à Charleroi.
+En 1991, elle entre parfaire sa formation en arts graphiques à l'Institut Saint-Luc de Bruxelles d'où elle sort diplômée d'un graduat en 1994. Elle se consacre à plein temps à l’illustration depuis 2003, après la naissance de sa fille. Ses dessins regorgeant de détails amusants sont joyeux et pleins d’un humour détonnant. Elle a déjà illustré plusieurs albums jeunesse dont Poussin vert (2014) chez Palissade éditions et J’aime pas la danse (2015) aux éditions Talents Hauts. 
+En 2015, pour le quarantième anniversaire de la Charte des auteurs et illustrateurs jeunesse, elle illustre un Abécédaire des auteurs et illustrateurs jeunesse rédigé par un collectif dirigé par Alice Brière-Haquet.
+En 2018, elle est récipiendaire du prix des Incorruptibles CE2/CM1 qu'elle partage avec Sandrine Beau pour Le Garçon qui parlait avec les mains publié aux éditions Alice Jeunesse en 2015.
+En 2021, elle s'associe à la scénariste Zélia Abadie pour lancer la série de bande dessinée jeunesse Awa et publie le premier tome intitulé : Faut qu'on change le monde ! publié aux éditions Talents Hauts. Dans la foulée, elle publie le second tome Les Nuances de l'amour l'année suivante chez le même éditeur.
+En 2023, elle a illustré plus de 78 ouvrages.
+Elle vit à Charleroi.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gwena%C3%ABlle_Doumont</t>
+          <t>Gwenaëlle_Doumont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,18 +564,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Awa
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Awa
 1 Faut qu'on change le monde !, Talents Hauts, septembre 2021Scénario : Zélia Abadie - Dessin et couleurs : Gwenaëlle Doumont -  (ISBN 978-2-362-66440-3)
-2 Les Nuances de l'amour[6], Talents Hauts, 15 mai 2022Scénario : Zélia Abadie - Dessin et couleurs : Gwenaëlle Doumont -  (ISBN 978-2-362-66468-7)
-Littérature jeunesse
-Liste restreinte
+2 Les Nuances de l'amour, Talents Hauts, 15 mai 2022Scénario : Zélia Abadie - Dessin et couleurs : Gwenaëlle Doumont -  (ISBN 978-2-362-66468-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gwenaëlle_Doumont</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gwena%C3%ABlle_Doumont</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste restreinte
 Vive moi !, texte Alice Brière-Haquet, ill. Gwenaëlle Doumont, éd. Amaterra, 2011  (ISBN 9782354501921)
 Le Garçon qui parlait avec les mains, texte Sandrine Beau, ill. Gwenaëlle Doumont, Alice Jeunesse, 2015  (ISBN 9782874262661)
 P'tite pomme 1 Maîtresse, une histoire !, texte Delphine Gilles-Cotte, ill. Gwenaëlle Doumont, Magnard, 2015  (ISBN 9782210961203)
-L'Ours blanc niveau 3 - J'apprends à lire Montessori, texte Charlotte Jouenne, ill. Gwenaëlle Doumont, Hachette Éducation, 2022  (ISBN 9782017182405)
-Prix et récompenses
-2018 :  prix des Incorruptibles CE2/CM1 partagé avec Sandrine Beau pour Le Garçon qui parlait avec les mains[5].</t>
+L'Ours blanc niveau 3 - J'apprends à lire Montessori, texte Charlotte Jouenne, ill. Gwenaëlle Doumont, Hachette Éducation, 2022  (ISBN 9782017182405)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gwenaëlle_Doumont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gwena%C3%ABlle_Doumont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 :  prix des Incorruptibles CE2/CM1 partagé avec Sandrine Beau pour Le Garçon qui parlait avec les mains.</t>
         </is>
       </c>
     </row>
